--- a/tukey_medie_corrette.xlsx
+++ b/tukey_medie_corrette.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
